--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,24 +46,21 @@
     <t>disappointing</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>however</t>
+    <t>broke</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>junk</t>
   </si>
   <si>
@@ -79,18 +76,18 @@
     <t>plastic</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
@@ -100,60 +97,60 @@
     <t>item</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>use</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>little</t>
+    <t>one</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>favorite</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
@@ -175,12 +172,15 @@
     <t>learn</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
@@ -188,9 +188,6 @@
   </si>
   <si>
     <t>game</t>
-  </si>
-  <si>
-    <t>play</t>
   </si>
   <si>
     <t>positive</t>
@@ -551,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,10 +556,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -641,16 +638,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -662,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -670,13 +667,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -688,19 +685,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4">
-        <v>0.8923076923076924</v>
+        <v>0.875</v>
       </c>
       <c r="L4">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="M4">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -720,13 +717,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7631578947368421</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -738,19 +735,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K5">
-        <v>0.84375</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -762,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -770,13 +767,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7323943661971831</v>
+        <v>0.71875</v>
       </c>
       <c r="C6">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -788,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>0.7956989247311828</v>
+        <v>0.75</v>
       </c>
       <c r="L6">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="M6">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -812,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -820,13 +817,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6935483870967742</v>
+        <v>0.6612903225806451</v>
       </c>
       <c r="C7">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D7">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -838,19 +835,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>0.6415094339622641</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -862,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -870,37 +867,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.671875</v>
+        <v>0.616504854368932</v>
       </c>
       <c r="C8">
+        <v>127</v>
+      </c>
+      <c r="D8">
+        <v>127</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>79</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D8">
-        <v>43</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>21</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="K8">
-        <v>0.5724533715925395</v>
+        <v>0.5942028985507246</v>
       </c>
       <c r="L8">
-        <v>399</v>
+        <v>41</v>
       </c>
       <c r="M8">
-        <v>399</v>
+        <v>41</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -912,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>298</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -920,13 +917,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6554054054054054</v>
+        <v>0.6081081081081081</v>
       </c>
       <c r="C9">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D9">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -938,19 +935,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>0.5362318840579711</v>
+        <v>0.5466284074605452</v>
       </c>
       <c r="L9">
-        <v>37</v>
+        <v>381</v>
       </c>
       <c r="M9">
-        <v>37</v>
+        <v>381</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -962,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>32</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -970,13 +967,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6262135922330098</v>
+        <v>0.6</v>
       </c>
       <c r="C10">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -988,31 +985,31 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>0.4979253112033195</v>
+        <v>0.5020746887966805</v>
       </c>
       <c r="L10">
+        <v>242</v>
+      </c>
+      <c r="M10">
+        <v>242</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>240</v>
-      </c>
-      <c r="M10">
-        <v>240</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1020,13 +1017,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5818181818181818</v>
+        <v>0.5798319327731093</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1038,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>0.4614754098360656</v>
+        <v>0.4573770491803278</v>
       </c>
       <c r="L11">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="M11">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1062,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>657</v>
+        <v>662</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1070,13 +1067,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5714285714285714</v>
+        <v>0.5101449275362319</v>
       </c>
       <c r="C12">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="D12">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1088,19 +1085,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>0.3516819571865443</v>
+        <v>0.363914373088685</v>
       </c>
       <c r="L12">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M12">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1112,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1120,13 +1117,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5101449275362319</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="C13">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="D13">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1138,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13">
         <v>0.3313253012048193</v>
@@ -1170,13 +1167,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4096385542168675</v>
+        <v>0.3858267716535433</v>
       </c>
       <c r="C14">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D14">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1188,10 +1185,10 @@
         <v>0</v>
       </c>
       <c r="H14">
+        <v>78</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="K14">
         <v>0.3166666666666667</v>
@@ -1220,37 +1217,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3937007874015748</v>
+        <v>0.3791469194312796</v>
       </c>
       <c r="C15">
+        <v>80</v>
+      </c>
+      <c r="D15">
+        <v>80</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>131</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D15">
-        <v>50</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>77</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="K15">
-        <v>0.3121693121693122</v>
+        <v>0.2804232804232804</v>
       </c>
       <c r="L15">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M15">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1262,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1270,13 +1267,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3789473684210526</v>
+        <v>0.3671875</v>
       </c>
       <c r="C16">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D16">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1288,19 +1285,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>0.25</v>
+        <v>0.2421875</v>
       </c>
       <c r="L16">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1312,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1320,13 +1317,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3707865168539326</v>
+        <v>0.3578947368421053</v>
       </c>
       <c r="C17">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1338,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>0.1881720430107527</v>
+        <v>0.2027972027972028</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1362,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>151</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1370,13 +1367,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3507109004739337</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C18">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1388,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>0.1726907630522088</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="L18">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M18">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1412,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1420,13 +1417,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.34375</v>
+        <v>0.2623762376237624</v>
       </c>
       <c r="C19">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D19">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1438,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K19">
-        <v>0.1454864154250657</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="L19">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1462,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>975</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1470,13 +1467,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2574257425742574</v>
+        <v>0.2319587628865979</v>
       </c>
       <c r="C20">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D20">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1488,31 +1485,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K20">
-        <v>0.07754010695187166</v>
+        <v>0.1350877192982456</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>154</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>345</v>
+        <v>986</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1520,13 +1517,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2319587628865979</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="C21">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D21">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1538,19 +1535,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21">
-        <v>0.06748864373783257</v>
+        <v>0.0855614973262032</v>
       </c>
       <c r="L21">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1562,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1437</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1570,13 +1567,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1847826086956522</v>
+        <v>0.175</v>
       </c>
       <c r="C22">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D22">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1588,31 +1585,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K22">
-        <v>0.04</v>
+        <v>0.08181818181818182</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="N22">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O22">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>720</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1620,13 +1617,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1772151898734177</v>
+        <v>0.1695402298850575</v>
       </c>
       <c r="C23">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D23">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1638,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>260</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1646,13 +1643,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.165</v>
+        <v>0.1691394658753709</v>
       </c>
       <c r="C24">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="D24">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1664,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>167</v>
+        <v>560</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1672,13 +1669,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1483679525222552</v>
+        <v>0.1677215189873418</v>
       </c>
       <c r="C25">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="D25">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1690,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>574</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1698,13 +1695,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1360759493670886</v>
+        <v>0.1392405063291139</v>
       </c>
       <c r="C26">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D26">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1716,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1724,25 +1721,25 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1350574712643678</v>
+        <v>0.1280353200883002</v>
       </c>
       <c r="C27">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D27">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>301</v>
+        <v>395</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1750,25 +1747,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.13215859030837</v>
+        <v>0.09340659340659341</v>
       </c>
       <c r="C28">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D28">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>394</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1776,13 +1773,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1169354838709677</v>
+        <v>0.07349665924276169</v>
       </c>
       <c r="C29">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D29">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1794,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>219</v>
+        <v>416</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1802,25 +1799,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1123595505617977</v>
+        <v>0.05766062602965404</v>
       </c>
       <c r="C30">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D30">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>237</v>
+        <v>572</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1828,51 +1825,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.07413509060955518</v>
+        <v>0.0430379746835443</v>
       </c>
       <c r="C31">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D31">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E31">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="F31">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.0645879732739421</v>
-      </c>
-      <c r="C32">
-        <v>29</v>
-      </c>
-      <c r="D32">
-        <v>29</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>420</v>
+        <v>756</v>
       </c>
     </row>
   </sheetData>
